--- a/data/trdplan_auto/交易计划mxz-20200806.xlsx
+++ b/data/trdplan_auto/交易计划mxz-20200806.xlsx
@@ -17,12 +17,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="250">
   <si>
     <t>产品代码</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>7072</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>7121</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
     <t>913</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>930</t>
   </si>
   <si>
     <t>证券自
@@ -39,34 +126,423 @@
     <t>产品名称</t>
   </si>
   <si>
+    <t>量化10</t>
+  </si>
+  <si>
+    <t>锐驰2号</t>
+  </si>
+  <si>
+    <t>锐驰3号</t>
+  </si>
+  <si>
+    <t>锐驰5号</t>
+  </si>
+  <si>
+    <t>锐驰6号</t>
+  </si>
+  <si>
+    <t>锐驰7号</t>
+  </si>
+  <si>
+    <t>锐驰11号</t>
+  </si>
+  <si>
+    <t>鸣石量化投资2期</t>
+  </si>
+  <si>
+    <t>鸣石傲华2号</t>
+  </si>
+  <si>
+    <t>鸣石傲华2号-2期</t>
+  </si>
+  <si>
+    <t>鸣石傲华4号</t>
+  </si>
+  <si>
+    <t>鸣石傲华5号</t>
+  </si>
+  <si>
+    <t>鸣石傲华7号</t>
+  </si>
+  <si>
+    <t>鸣石傲华7号B</t>
+  </si>
+  <si>
+    <t>鸣石傲华8号</t>
+  </si>
+  <si>
+    <t>鸣石傲华11号</t>
+  </si>
+  <si>
+    <t>鸣石傲华12号1期</t>
+  </si>
+  <si>
+    <t>鸣石傲华15号</t>
+  </si>
+  <si>
+    <t>量化5号</t>
+  </si>
+  <si>
+    <t>量化6号</t>
+  </si>
+  <si>
+    <t>量化8号</t>
+  </si>
+  <si>
     <t>量化13号</t>
   </si>
   <si>
+    <t>量化14号</t>
+  </si>
+  <si>
+    <t>量化17号</t>
+  </si>
+  <si>
+    <t>量化19号</t>
+  </si>
+  <si>
+    <t>量化20号</t>
+  </si>
+  <si>
+    <t>量化21号</t>
+  </si>
+  <si>
+    <t>量化22号</t>
+  </si>
+  <si>
+    <t>量化29号</t>
+  </si>
+  <si>
+    <t>量化30号</t>
+  </si>
+  <si>
     <t>总规模</t>
   </si>
   <si>
+    <t>13979</t>
+  </si>
+  <si>
+    <t>3169</t>
+  </si>
+  <si>
+    <t>2660</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7927</t>
+  </si>
+  <si>
+    <t>18671</t>
+  </si>
+  <si>
+    <t>3890</t>
+  </si>
+  <si>
+    <t>3042</t>
+  </si>
+  <si>
+    <t>4102</t>
+  </si>
+  <si>
+    <t>5927</t>
+  </si>
+  <si>
+    <t>10177</t>
+  </si>
+  <si>
+    <t>4282</t>
+  </si>
+  <si>
+    <t>2366</t>
+  </si>
+  <si>
+    <t>4637</t>
+  </si>
+  <si>
+    <t>13431</t>
+  </si>
+  <si>
+    <t>23098</t>
+  </si>
+  <si>
+    <t>2546</t>
+  </si>
+  <si>
+    <t>4971</t>
+  </si>
+  <si>
+    <t>2701</t>
+  </si>
+  <si>
     <t>28772</t>
   </si>
   <si>
+    <t>2791</t>
+  </si>
+  <si>
+    <t>6790</t>
+  </si>
+  <si>
+    <t>24406</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>2095</t>
+  </si>
+  <si>
+    <t>9392</t>
+  </si>
+  <si>
+    <t>8668</t>
+  </si>
+  <si>
+    <t>11629</t>
+  </si>
+  <si>
     <t>最新净值</t>
   </si>
   <si>
+    <t>1.1964</t>
+  </si>
+  <si>
+    <t>1.141</t>
+  </si>
+  <si>
+    <t>1.1114</t>
+  </si>
+  <si>
+    <t>2.2858</t>
+  </si>
+  <si>
+    <t>1.531</t>
+  </si>
+  <si>
+    <t>1.1719</t>
+  </si>
+  <si>
+    <t>1.0251</t>
+  </si>
+  <si>
+    <t>2.324</t>
+  </si>
+  <si>
+    <t>1.569</t>
+  </si>
+  <si>
+    <t>1.452</t>
+  </si>
+  <si>
+    <t>1.0847</t>
+  </si>
+  <si>
+    <t>1.503</t>
+  </si>
+  <si>
+    <t>1.2163</t>
+  </si>
+  <si>
+    <t>1.585</t>
+  </si>
+  <si>
+    <t>1.069</t>
+  </si>
+  <si>
+    <t>1.477</t>
+  </si>
+  <si>
+    <t>1.314</t>
+  </si>
+  <si>
+    <t>1.2763</t>
+  </si>
+  <si>
+    <t>1.1674</t>
+  </si>
+  <si>
+    <t>1.023</t>
+  </si>
+  <si>
+    <t>1.279</t>
+  </si>
+  <si>
     <t>1.7926</t>
   </si>
   <si>
+    <t>1.064</t>
+  </si>
+  <si>
+    <t>1.2468</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.2653</t>
+  </si>
+  <si>
+    <t>1.249</t>
+  </si>
+  <si>
+    <t>1.228</t>
+  </si>
+  <si>
+    <t>1.1037</t>
+  </si>
+  <si>
+    <t>1.086</t>
+  </si>
+  <si>
     <t>信号</t>
   </si>
   <si>
+    <t>中频935_v2</t>
+  </si>
+  <si>
     <t>1430</t>
   </si>
   <si>
+    <t>中频935</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>日内931</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>日内1400</t>
+  </si>
+  <si>
     <t>今资金划转计划</t>
+  </si>
+  <si>
+    <t>证（普通）转银100万
+银转期85万</t>
+  </si>
+  <si>
+    <t>期（西部）转银45万
+证（信用）转银40万
+银转期（宏源）60万
+银转证（普通）25万</t>
+  </si>
+  <si>
+    <t>期转银35万
+证（信用）转银540万
+银转证（普通）15万</t>
+  </si>
+  <si>
+    <t>期转银130万
+证转银45万</t>
+  </si>
+  <si>
+    <t>证（中信）转银210万
+银转期165万
+银转证（东北）40万</t>
+  </si>
+  <si>
+    <t>证（中信建投）转银60万
+证（海通）转银245万
+银转期305万</t>
+  </si>
+  <si>
+    <t>期转银150万
+证（信用）转银265万
+银转证（普通）345万</t>
+  </si>
+  <si>
+    <t>期转银40万
+银转证30万</t>
+  </si>
+  <si>
+    <t>期转银205万
+银转证180万</t>
+  </si>
+  <si>
+    <t>期转银80万
+银转证60万</t>
+  </si>
+  <si>
+    <t>期转银125万
+证（中信建投信用）转银全部
+银转证（普通）105万</t>
+  </si>
+  <si>
+    <t>期转银200万
+银转证195万</t>
+  </si>
+  <si>
+    <t>证转银55万
+银转期40万</t>
+  </si>
+  <si>
+    <t>期转银125万
+银转证115万</t>
+  </si>
+  <si>
+    <t>期转银120万
+银转证95万</t>
+  </si>
+  <si>
+    <t>期转银75万
+银转证55万</t>
+  </si>
+  <si>
+    <t>期转银10万
+证（普通）转银5万</t>
+  </si>
+  <si>
+    <t>期转银50万
+证（信用）转银355万
+银转证（普通）390万</t>
+  </si>
+  <si>
+    <t>证转银30万
+银转期20万</t>
   </si>
   <si>
     <t>期转银600万
 银转证（普通）600万</t>
   </si>
   <si>
+    <t>证转银40万
+银转期45万</t>
+  </si>
+  <si>
+    <t>期转银440万
+证（信用）转银640万
+银转证（普通）995万</t>
+  </si>
+  <si>
+    <t>证（信用）转银2945万
+银转期65万
+银转证（普通）2615万</t>
+  </si>
+  <si>
+    <t>期转银160万
+期（国泰君安）转银全部
+证（中信）转银3660万
+证（国泰君安信用）转银1440万
+银转证（国泰君安普通）745万</t>
+  </si>
+  <si>
+    <t>期转银145万
+银转证145万</t>
+  </si>
+  <si>
+    <t>期转银55万
+证转银170万</t>
+  </si>
+  <si>
     <t>今资金划转执行</t>
   </si>
   <si>
@@ -74,16 +550,137 @@
   </si>
   <si>
     <t>今组合交易计划</t>
+  </si>
+  <si>
+    <t>开2手IC空头，
+普通户目标持仓10750万，79手IC空头（平3手IC空头）</t>
+  </si>
+  <si>
+    <t>普通户目标持仓0万，
+信用户目标持仓2450万，18手IC空头（宏源期货开1手IC空头，西部期货平2手IC空头）</t>
+  </si>
+  <si>
+    <t>普通户目标持仓0万，
+信用户目标持仓1600万</t>
+  </si>
+  <si>
+    <t>目标持仓0万，清仓IC多头（平1手IC多头）</t>
+  </si>
+  <si>
+    <t>目标持仓0万</t>
+  </si>
+  <si>
+    <t>东北证券目标持仓5400万，
+中信证券目标持仓750万，45手IC空头（开17手IC空头）</t>
+  </si>
+  <si>
+    <t>平3手IC空头，
+海通证券目标持仓11350万，
+中信建投目标持仓3050万</t>
+  </si>
+  <si>
+    <t>开1手IC空头，
+信用户目标持仓3000万</t>
+  </si>
+  <si>
+    <t>平1手IC多头，
+买货基550万，目标持仓2150万</t>
+  </si>
+  <si>
+    <t>目标持仓2850万，8手IC多头（平1手IC多头）</t>
+  </si>
+  <si>
+    <t>信用户目标持仓0万</t>
+  </si>
+  <si>
+    <t>开1手IC多头，
+目标持仓4150万，12手IC多头（平1手IC多头）</t>
+  </si>
+  <si>
+    <t>开2手IC多头，
+普通户目标持仓8600万，10手IC多头（平2手IC多头）</t>
+  </si>
+  <si>
+    <t>平1手IC多头，
+目标持仓3000万，9手IC多头（开1手IC多头）</t>
+  </si>
+  <si>
+    <t>目标持仓1800万</t>
+  </si>
+  <si>
+    <t>目标持仓4150万</t>
+  </si>
+  <si>
+    <t>平3手IC多头，
+目标持仓11950万，9手IC多头（开3手IC多头）</t>
+  </si>
+  <si>
+    <t>目标持仓20600万</t>
+  </si>
+  <si>
+    <t>平1手IC空头，
+普通户目标持仓1950万</t>
+  </si>
+  <si>
+    <t>普通户买货基350万，目标持仓0万，
+信用户目标持仓3850万</t>
+  </si>
+  <si>
+    <t>目标持仓2100万</t>
   </si>
   <si>
     <t>开6手IC空头，
 普通户目标持仓56050万，49手IC空头（平4手IC空头）</t>
   </si>
   <si>
+    <t>目标持仓2150万</t>
+  </si>
+  <si>
+    <t>平1手IC多头，开1手IC空头，
+普通户买货基1000万，目标持仓0万，
+信用户卖货基200万，目标持仓5250万，清仓IC多头（平1手IC空头）</t>
+  </si>
+  <si>
+    <t>平3手IC空头，
+普通户买货基2450万，目标持仓0万，
+信用户目标持仓18800万，45手IC空头（开1手IC空头）</t>
+  </si>
+  <si>
+    <t>普通户目标持仓1200万，9手IC空头（开9手IC空头）</t>
+  </si>
+  <si>
+    <t>平1手IC空头，
+目标持仓1600万，12手IC空头（开1手IC空头）</t>
+  </si>
+  <si>
+    <t>平1手IC空头，
+中信证券目标持仓0万，
+国泰君安信用户卖货基450万，目标持仓3600万，20手IC空头（平1手IC空头）</t>
+  </si>
+  <si>
+    <t>目标持仓8600万，3手IC多头（平6手IC多头）</t>
+  </si>
+  <si>
+    <t>开1手IC空头，
+卖货基50万，目标持仓9400万</t>
+  </si>
+  <si>
     <t>今组合交易执行</t>
   </si>
   <si>
     <t>明组合交易计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赎回5016000.14份（约计562万） 按照20200803净值 20200807划款.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赎回733862.56份（约计168万） 按照20200805净值 20200810划款.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赎回5470000.0份（约计587万） 按照20200803净值 20200806划款.
+</t>
   </si>
   <si>
     <t>注意事项</t>
@@ -93,16 +690,150 @@
 计提</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>当前股票持仓</t>
   </si>
   <si>
+    <t>五矿普通户11100万</t>
+  </si>
+  <si>
+    <t>中信建投信用户2600万</t>
+  </si>
+  <si>
+    <t>招商信用户1700万</t>
+  </si>
+  <si>
+    <t>东北普通户3850万</t>
+  </si>
+  <si>
+    <t>海通普通户11350万
+中信建投普通户3050万</t>
+  </si>
+  <si>
+    <t>申银万国信用户3000万</t>
+  </si>
+  <si>
+    <t>银河普通户2200万</t>
+  </si>
+  <si>
+    <t>银河普通户2850万</t>
+  </si>
+  <si>
+    <t>银河普通户4150万</t>
+  </si>
+  <si>
+    <t>中信建投普通户8450万</t>
+  </si>
+  <si>
+    <t>银河普通户3100万</t>
+  </si>
+  <si>
+    <t>银河普通户1800万</t>
+  </si>
+  <si>
+    <t>银河普通户4200万</t>
+  </si>
+  <si>
+    <t>银河普通户12450万</t>
+  </si>
+  <si>
+    <t>中信建投普通户20700万</t>
+  </si>
+  <si>
+    <t>华泰普通户1950万</t>
+  </si>
+  <si>
+    <t>国泰君安信用户3900万</t>
+  </si>
+  <si>
+    <t>海通普通户2100万</t>
+  </si>
+  <si>
     <t>华泰普通户56600万</t>
   </si>
   <si>
+    <t>华泰普通户2200万</t>
+  </si>
+  <si>
+    <t>中信建投信用户5350万</t>
+  </si>
+  <si>
+    <t>申银万国信用户18650万</t>
+  </si>
+  <si>
+    <t>浙商普通户1500万</t>
+  </si>
+  <si>
+    <t>中信普通户3650万
+国泰君安信用户3750万</t>
+  </si>
+  <si>
+    <t>中信普通户7750万</t>
+  </si>
+  <si>
+    <t>华福普通户9600万</t>
+  </si>
+  <si>
     <t>当前期指持仓</t>
   </si>
   <si>
+    <t>80手IC空头</t>
+  </si>
+  <si>
+    <t>18手IC空头</t>
+  </si>
+  <si>
+    <t>12手IC空头</t>
+  </si>
+  <si>
+    <t>1手IC多头</t>
+  </si>
+  <si>
+    <t>28手IC空头</t>
+  </si>
+  <si>
+    <t>109手IC空头</t>
+  </si>
+  <si>
+    <t>7手IC多头</t>
+  </si>
+  <si>
+    <t>9手IC多头</t>
+  </si>
+  <si>
+    <t>12手IC多头</t>
+  </si>
+  <si>
+    <t>10手IC多头</t>
+  </si>
+  <si>
+    <t>13手IC空头</t>
+  </si>
+  <si>
+    <t>3手IC多头</t>
+  </si>
+  <si>
+    <t>16手IC多头</t>
+  </si>
+  <si>
+    <t>15手IC空头</t>
+  </si>
+  <si>
+    <t>9手IC空头</t>
+  </si>
+  <si>
     <t>47手IC空头</t>
+  </si>
+  <si>
+    <t>16手IC空头</t>
+  </si>
+  <si>
+    <t>22手IC空头</t>
+  </si>
+  <si>
+    <t>44手IC空头</t>
   </si>
   <si>
     <t>备注</t>
@@ -523,55 +1254,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80" customHeight="1">
@@ -579,66 +1310,1037 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="80" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="80" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="80" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="80" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="80" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="80" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="80" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="80" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="80" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="80" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="80" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="80" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="80" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="80" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="80" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="80" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="80" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="80" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="80" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="80" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="80" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="80" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="80" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="80" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="80" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="80" customHeight="1"/>
-    <row r="4" spans="1:18" ht="80" customHeight="1"/>
-    <row r="5" spans="1:18" ht="80" customHeight="1"/>
-    <row r="6" spans="1:18" ht="80" customHeight="1"/>
-    <row r="7" spans="1:18" ht="80" customHeight="1"/>
-    <row r="8" spans="1:18" ht="80" customHeight="1"/>
-    <row r="9" spans="1:18" ht="80" customHeight="1"/>
-    <row r="10" spans="1:18" ht="80" customHeight="1"/>
-    <row r="11" spans="1:18" ht="80" customHeight="1"/>
-    <row r="12" spans="1:18" ht="80" customHeight="1"/>
-    <row r="13" spans="1:18" ht="80" customHeight="1"/>
-    <row r="14" spans="1:18" ht="80" customHeight="1"/>
-    <row r="15" spans="1:18" ht="80" customHeight="1"/>
-    <row r="16" spans="1:18" ht="80" customHeight="1"/>
-    <row r="17" ht="80" customHeight="1"/>
-    <row r="18" ht="80" customHeight="1"/>
-    <row r="19" ht="80" customHeight="1"/>
-    <row r="20" ht="80" customHeight="1"/>
-    <row r="21" ht="80" customHeight="1"/>
-    <row r="22" ht="80" customHeight="1"/>
-    <row r="23" ht="80" customHeight="1"/>
-    <row r="24" ht="80" customHeight="1"/>
-    <row r="25" ht="80" customHeight="1"/>
-    <row r="26" ht="80" customHeight="1"/>
-    <row r="27" ht="80" customHeight="1"/>
-    <row r="28" ht="80" customHeight="1"/>
-    <row r="29" ht="80" customHeight="1"/>
-    <row r="30" ht="80" customHeight="1"/>
-    <row r="31" ht="80" customHeight="1"/>
-    <row r="32" ht="80" customHeight="1"/>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="80" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="80" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="80" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="80" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="80" customHeight="1"/>
     <row r="33" ht="80" customHeight="1"/>
     <row r="34" ht="80" customHeight="1"/>
     <row r="35" ht="80" customHeight="1"/>
